--- a/data/trans_orig/DCD-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF1E09B3-727E-40A0-961E-42AE496922D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74219865-DAAA-409D-998B-AB44D1946439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86A2AEC5-4C65-4AEF-AAE4-D7449A432CC6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{195FEB45-AC46-4042-ACAB-77B501821C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="368">
   <si>
     <t>Población con dolor crónico discapacitante en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -200,327 +200,321 @@
     <t>5,95%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
     <t>Población con dolor crónico discapacitante en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -530,31 +524,31 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>13,86%</t>
+    <t>13,57%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>92,46%</t>
   </si>
   <si>
-    <t>86,14%</t>
+    <t>86,43%</t>
   </si>
   <si>
     <t>96,47%</t>
@@ -563,511 +557,511 @@
     <t>86,06%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>89,31%</t>
   </si>
   <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>4,86%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>90,66%</t>
   </si>
   <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
   </si>
   <si>
     <t>81,1%</t>
   </si>
   <si>
-    <t>82,83%</t>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>87,98%</t>
   </si>
   <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>81,38%</t>
   </si>
   <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>24,44%</t>
+    <t>24,59%</t>
   </si>
   <si>
     <t>29,66%</t>
@@ -1076,19 +1070,19 @@
     <t>21,15%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>73,23%</t>
@@ -1097,70 +1091,58 @@
     <t>70,34%</t>
   </si>
   <si>
-    <t>75,56%</t>
+    <t>75,41%</t>
   </si>
   <si>
     <t>78,85%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>19,86%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>80,14%</t>
   </si>
   <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>79,11%</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B189359-70BA-47AE-9BD7-0E1D315D9989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF4C3F3-5B34-419A-8265-A5930B7F5505}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2635,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78D0F2C-BAFF-43D6-89AB-BCF744F75A00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDD5923-7731-4E69-AFF7-B483CA546F5A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3260,7 +3242,7 @@
         <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3257,13 @@
         <v>716149</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>600</v>
@@ -3290,13 +3272,13 @@
         <v>663120</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M14" s="7">
         <v>1253</v>
@@ -3305,13 +3287,13 @@
         <v>1379269</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3361,13 @@
         <v>60893</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H16" s="7">
         <v>159</v>
@@ -3394,13 +3376,13 @@
         <v>168212</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M16" s="7">
         <v>218</v>
@@ -3409,13 +3391,13 @@
         <v>229105</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3412,13 @@
         <v>886846</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H17" s="7">
         <v>844</v>
@@ -3445,13 +3427,13 @@
         <v>883689</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M17" s="7">
         <v>1695</v>
@@ -3460,13 +3442,13 @@
         <v>1770535</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3516,13 @@
         <v>228270</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H19" s="7">
         <v>536</v>
@@ -3549,13 +3531,13 @@
         <v>580234</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M19" s="7">
         <v>748</v>
@@ -3564,13 +3546,13 @@
         <v>808504</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3567,13 @@
         <v>3198509</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>2762</v>
@@ -3600,13 +3582,13 @@
         <v>2978075</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>5759</v>
@@ -3615,13 +3597,13 @@
         <v>6176584</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,7 +3680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1667D187-8ED7-4584-9D67-17F571E2B16C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FCEC4B-ED0C-4669-A87C-E49D1AA5ACFE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3697,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3822,13 +3804,13 @@
         <v>8783</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3837,13 +3819,13 @@
         <v>15803</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3852,13 +3834,13 @@
         <v>24586</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3855,13 @@
         <v>107763</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -3888,13 +3870,13 @@
         <v>97557</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>205</v>
@@ -3903,13 +3885,13 @@
         <v>205320</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3959,13 @@
         <v>38024</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -3992,13 +3974,13 @@
         <v>77483</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -4007,13 +3989,13 @@
         <v>115507</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4010,13 @@
         <v>520230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -4043,13 +4025,13 @@
         <v>481996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>980</v>
@@ -4058,13 +4040,13 @@
         <v>1002226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4114,13 @@
         <v>71027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -4147,13 +4129,13 @@
         <v>131635</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>184</v>
@@ -4162,13 +4144,13 @@
         <v>202662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4165,13 @@
         <v>951404</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>860</v>
@@ -4198,13 +4180,13 @@
         <v>911278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>1744</v>
@@ -4213,13 +4195,13 @@
         <v>1862682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4269,13 @@
         <v>43404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -4302,13 +4284,13 @@
         <v>84481</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -4317,13 +4299,13 @@
         <v>127885</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4320,13 @@
         <v>716148</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -4353,13 +4335,13 @@
         <v>700530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1314</v>
@@ -4368,13 +4350,13 @@
         <v>1416678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4424,13 @@
         <v>66787</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -4457,13 +4439,13 @@
         <v>153102</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -4472,13 +4454,13 @@
         <v>219889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4475,13 @@
         <v>870780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>825</v>
@@ -4508,13 +4490,13 @@
         <v>890677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>1693</v>
@@ -4523,13 +4505,13 @@
         <v>1761457</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4579,13 @@
         <v>228026</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>416</v>
@@ -4612,13 +4594,13 @@
         <v>462504</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>633</v>
@@ -4627,13 +4609,13 @@
         <v>690530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4630,13 @@
         <v>3166324</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>2922</v>
@@ -4663,13 +4645,13 @@
         <v>3082038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>5936</v>
@@ -4678,13 +4660,13 @@
         <v>6248362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,7 +4743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0A47AE-D724-47C1-A76C-616C4BE2C482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE9A84-9686-4397-9685-09519D6CA899}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4778,7 +4760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4885,13 +4867,13 @@
         <v>18428</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -4900,13 +4882,13 @@
         <v>37102</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>98</v>
@@ -4915,13 +4897,13 @@
         <v>55530</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4918,13 @@
         <v>83554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -4951,13 +4933,13 @@
         <v>93631</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>263</v>
@@ -4966,13 +4948,13 @@
         <v>177185</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5022,13 @@
         <v>81182</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>290</v>
@@ -5055,13 +5037,13 @@
         <v>154842</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>393</v>
@@ -5070,13 +5052,13 @@
         <v>236023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5073,13 @@
         <v>468641</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>708</v>
@@ -5106,13 +5088,13 @@
         <v>465125</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>1217</v>
@@ -5121,13 +5103,13 @@
         <v>933767</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5177,13 @@
         <v>121133</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>435</v>
@@ -5210,13 +5192,13 @@
         <v>275643</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>574</v>
@@ -5225,13 +5207,13 @@
         <v>396775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5228,13 @@
         <v>918115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>1082</v>
@@ -5261,13 +5243,13 @@
         <v>784436</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>1907</v>
@@ -5276,13 +5258,13 @@
         <v>1702552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5332,13 @@
         <v>87601</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H13" s="7">
         <v>309</v>
@@ -5365,13 +5347,13 @@
         <v>210891</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>403</v>
@@ -5380,13 +5362,13 @@
         <v>298492</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5383,13 @@
         <v>641171</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>738</v>
@@ -5416,13 +5398,13 @@
         <v>663480</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>1320</v>
@@ -5431,13 +5413,13 @@
         <v>1304650</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5487,13 @@
         <v>139526</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H16" s="7">
         <v>442</v>
@@ -5520,13 +5502,13 @@
         <v>307925</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>604</v>
@@ -5535,13 +5517,13 @@
         <v>447451</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5538,13 @@
         <v>825877</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>1120</v>
@@ -5571,13 +5553,13 @@
         <v>842507</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M17" s="7">
         <v>1964</v>
@@ -5586,13 +5568,13 @@
         <v>1668384</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5642,13 @@
         <v>447869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>356</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>1548</v>
@@ -5675,13 +5657,13 @@
         <v>986402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>2072</v>
@@ -5690,13 +5672,13 @@
         <v>1434271</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5693,13 @@
         <v>2937359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>3819</v>
@@ -5726,28 +5708,28 @@
         <v>2849179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>6671</v>
       </c>
       <c r="N20" s="7">
-        <v>5786538</v>
+        <v>5786537</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,7 +5771,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/DCD-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74219865-DAAA-409D-998B-AB44D1946439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A55B872-1BAC-4586-A6FA-68A5897AA695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{195FEB45-AC46-4042-ACAB-77B501821C6F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4CAECB1D-BC9C-44FA-8029-9074FB8384E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -128,7 +128,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -143,7 +143,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -200,328 +200,331 @@
     <t>5,95%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>94,05%</t>
   </si>
   <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>74,57%</t>
   </si>
   <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>17,62%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>91,08%</t>
   </si>
   <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>82,38%</t>
   </si>
   <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>16,12%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>83,88%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>8,57%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>85,32%</t>
   </si>
   <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>91,43%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>84,01%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>88,54%</t>
   </si>
   <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>93,34%</t>
   </si>
   <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
   </si>
   <si>
     <t>88,43%</t>
   </si>
   <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>13,57%</t>
@@ -530,55 +533,52 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>86,43%</t>
   </si>
   <si>
-    <t>96,47%</t>
+    <t>96,67%</t>
   </si>
   <si>
     <t>86,06%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>89,31%</t>
   </si>
   <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>13,85%</t>
@@ -587,28 +587,31 @@
     <t>11,02%</t>
   </si>
   <si>
-    <t>17,34%</t>
+    <t>17,05%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>8,68%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>82,66%</t>
+    <t>82,95%</t>
   </si>
   <si>
     <t>88,98%</t>
@@ -617,511 +620,508 @@
     <t>89,67%</t>
   </si>
   <si>
-    <t>91,32%</t>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>90,19%</t>
   </si>
   <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
   </si>
   <si>
     <t>86,77%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
   </si>
   <si>
     <t>85,56%</t>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF4C3F3-5B34-419A-8265-A5930B7F5505}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EC1EAB-4A06-4C6B-ABFA-59E9E5ADDF4C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2501,7 +2501,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2531,7 +2531,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2552,7 +2552,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2582,7 +2582,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2617,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDD5923-7731-4E69-AFF7-B483CA546F5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F65432-7BEA-457A-9A3A-16B209F1AA60}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3242,7 +3242,7 @@
         <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3257,13 @@
         <v>716149</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>600</v>
@@ -3272,13 +3272,13 @@
         <v>663120</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M14" s="7">
         <v>1253</v>
@@ -3287,13 +3287,13 @@
         <v>1379269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3361,13 @@
         <v>60893</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H16" s="7">
         <v>159</v>
@@ -3376,13 +3376,13 @@
         <v>168212</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M16" s="7">
         <v>218</v>
@@ -3391,13 +3391,13 @@
         <v>229105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3412,13 @@
         <v>886846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H17" s="7">
         <v>844</v>
@@ -3427,13 +3427,13 @@
         <v>883689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M17" s="7">
         <v>1695</v>
@@ -3442,13 +3442,13 @@
         <v>1770535</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3516,13 @@
         <v>228270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H19" s="7">
         <v>536</v>
@@ -3531,13 +3531,13 @@
         <v>580234</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M19" s="7">
         <v>748</v>
@@ -3546,13 +3546,13 @@
         <v>808504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3567,13 @@
         <v>3198509</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>2762</v>
@@ -3582,13 +3582,13 @@
         <v>2978075</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>5759</v>
@@ -3597,13 +3597,13 @@
         <v>6176584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,7 +3680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FCEC4B-ED0C-4669-A87C-E49D1AA5ACFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BDB362-0E2A-408D-BCD3-70F57DE20DDE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3697,7 +3697,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3804,13 +3804,13 @@
         <v>8783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3819,13 +3819,13 @@
         <v>15803</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3834,13 +3834,13 @@
         <v>24586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,7 +3855,7 @@
         <v>107763</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>169</v>
@@ -3995,7 +3995,7 @@
         <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4010,13 @@
         <v>520230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -4025,13 +4025,13 @@
         <v>481996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>980</v>
@@ -4040,13 +4040,13 @@
         <v>1002226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4114,13 @@
         <v>71027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -4129,13 +4129,13 @@
         <v>131635</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>184</v>
@@ -4144,13 +4144,13 @@
         <v>202662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4165,13 @@
         <v>951404</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>860</v>
@@ -4180,13 +4180,13 @@
         <v>911278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>1744</v>
@@ -4195,13 +4195,13 @@
         <v>1862682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4269,13 @@
         <v>43404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -4284,13 +4284,13 @@
         <v>84481</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -4299,13 +4299,13 @@
         <v>127885</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4320,13 @@
         <v>716148</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -4335,13 +4335,13 @@
         <v>700530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1314</v>
@@ -4350,13 +4350,13 @@
         <v>1416678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4424,13 @@
         <v>66787</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -4439,13 +4439,13 @@
         <v>153102</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -4454,13 +4454,13 @@
         <v>219889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4475,13 @@
         <v>870780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>825</v>
@@ -4579,13 +4579,13 @@
         <v>228026</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>416</v>
@@ -4594,13 +4594,13 @@
         <v>462504</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>633</v>
@@ -4609,13 +4609,13 @@
         <v>690530</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4630,13 @@
         <v>3166324</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>2922</v>
@@ -4645,13 +4645,13 @@
         <v>3082038</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>5936</v>
@@ -4660,13 +4660,13 @@
         <v>6248362</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,7 +4743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE9A84-9686-4397-9685-09519D6CA899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32655B68-F7DD-4646-9241-3A2F39E275F6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4760,7 +4760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4867,13 +4867,13 @@
         <v>18428</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -4882,13 +4882,13 @@
         <v>37102</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>98</v>
@@ -4897,13 +4897,13 @@
         <v>55530</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4918,13 @@
         <v>83554</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -4933,13 +4933,13 @@
         <v>93631</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>263</v>
@@ -4948,13 +4948,13 @@
         <v>177185</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5022,13 @@
         <v>81182</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>290</v>
@@ -5037,13 +5037,13 @@
         <v>154842</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>393</v>
@@ -5052,13 +5052,13 @@
         <v>236023</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5073,13 @@
         <v>468641</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>708</v>
@@ -5088,13 +5088,13 @@
         <v>465125</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>1217</v>
@@ -5103,13 +5103,13 @@
         <v>933767</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5177,13 @@
         <v>121133</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>435</v>
@@ -5192,13 +5192,13 @@
         <v>275643</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>574</v>
@@ -5207,13 +5207,13 @@
         <v>396775</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5228,13 @@
         <v>918115</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>1082</v>
@@ -5243,13 +5243,13 @@
         <v>784436</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>1907</v>
@@ -5258,13 +5258,13 @@
         <v>1702552</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5332,13 @@
         <v>87601</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>309</v>
@@ -5347,13 +5347,13 @@
         <v>210891</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>403</v>
@@ -5362,13 +5362,13 @@
         <v>298492</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5383,13 @@
         <v>641171</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>738</v>
@@ -5398,13 +5398,13 @@
         <v>663480</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>1320</v>
@@ -5413,13 +5413,13 @@
         <v>1304650</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5487,13 @@
         <v>139526</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H16" s="7">
         <v>442</v>
@@ -5502,13 +5502,13 @@
         <v>307925</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>604</v>
@@ -5517,13 +5517,13 @@
         <v>447451</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5538,13 @@
         <v>825877</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>1120</v>
@@ -5553,13 +5553,13 @@
         <v>842507</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>1964</v>
@@ -5568,13 +5568,13 @@
         <v>1668384</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5642,13 @@
         <v>447869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>352</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>1548</v>
@@ -5657,13 +5657,13 @@
         <v>986402</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>2072</v>
@@ -5672,13 +5672,13 @@
         <v>1434271</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,7 +5693,7 @@
         <v>2937359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>361</v>
@@ -5729,7 +5729,7 @@
         <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/DCD-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A55B872-1BAC-4586-A6FA-68A5897AA695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD974E2-4618-482F-A5B9-DB391943F078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4CAECB1D-BC9C-44FA-8029-9074FB8384E5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{052F0FF6-4229-42DD-93B6-AB22BB4BAC08}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="374">
   <si>
     <t>Población con dolor crónico discapacitante en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -200,862 +200,874 @@
     <t>5,95%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>94,05%</t>
   </si>
   <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>74,57%</t>
   </si>
   <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>17,62%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
   </si>
   <si>
     <t>81,38%</t>
   </si>
   <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>24,59%</t>
+    <t>24,44%</t>
   </si>
   <si>
     <t>29,66%</t>
@@ -1064,19 +1076,19 @@
     <t>21,15%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>73,23%</t>
@@ -1085,64 +1097,70 @@
     <t>70,34%</t>
   </si>
   <si>
-    <t>75,41%</t>
+    <t>75,56%</t>
   </si>
   <si>
     <t>78,85%</t>
   </si>
   <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>19,86%</t>
   </si>
   <si>
-    <t>20,89%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
   </si>
   <si>
     <t>80,14%</t>
   </si>
   <si>
-    <t>79,11%</t>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EC1EAB-4A06-4C6B-ABFA-59E9E5ADDF4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14508832-DCF9-4102-8572-582F18400B13}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2501,7 +2519,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2531,7 +2549,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2552,7 +2570,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2582,7 +2600,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2617,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F65432-7BEA-457A-9A3A-16B209F1AA60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D900FB-A038-4F12-B4B6-429F77DD76FE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3680,7 +3698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BDB362-0E2A-408D-BCD3-70F57DE20DDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23C8695-88FA-4C0E-9F15-D4D4348DFA35}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3804,13 +3822,13 @@
         <v>8783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3819,13 +3837,13 @@
         <v>15803</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3834,13 +3852,13 @@
         <v>24586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3873,13 @@
         <v>107763</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -3870,13 +3888,13 @@
         <v>97557</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>205</v>
@@ -3885,13 +3903,13 @@
         <v>205320</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3977,13 @@
         <v>38024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -3974,13 +3992,13 @@
         <v>77483</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -3989,13 +4007,13 @@
         <v>115507</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4028,13 @@
         <v>520230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -4025,13 +4043,13 @@
         <v>481996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>980</v>
@@ -4040,13 +4058,13 @@
         <v>1002226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4132,13 @@
         <v>71027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -4129,13 +4147,13 @@
         <v>131635</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>184</v>
@@ -4144,13 +4162,13 @@
         <v>202662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4183,13 @@
         <v>951404</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>860</v>
@@ -4180,13 +4198,13 @@
         <v>911278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>1744</v>
@@ -4195,13 +4213,13 @@
         <v>1862682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4287,13 @@
         <v>43404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -4284,13 +4302,13 @@
         <v>84481</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -4299,13 +4317,13 @@
         <v>127885</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4338,13 @@
         <v>716148</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -4335,13 +4353,13 @@
         <v>700530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>1314</v>
@@ -4350,13 +4368,13 @@
         <v>1416678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4442,13 @@
         <v>66787</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -4439,13 +4457,13 @@
         <v>153102</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -4454,13 +4472,13 @@
         <v>219889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4493,13 @@
         <v>870780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>825</v>
@@ -4490,13 +4508,13 @@
         <v>890677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>1693</v>
@@ -4505,13 +4523,13 @@
         <v>1761457</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4597,13 @@
         <v>228026</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>416</v>
@@ -4594,13 +4612,13 @@
         <v>462504</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>633</v>
@@ -4609,13 +4627,13 @@
         <v>690530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4648,13 @@
         <v>3166324</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>2922</v>
@@ -4645,13 +4663,13 @@
         <v>3082038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>5936</v>
@@ -4660,13 +4678,13 @@
         <v>6248362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,7 +4761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32655B68-F7DD-4646-9241-3A2F39E275F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5481EA-C9B5-42DB-9CA2-9991BE73792A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4760,7 +4778,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4867,13 +4885,13 @@
         <v>18428</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -4882,13 +4900,13 @@
         <v>37102</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
         <v>98</v>
@@ -4897,13 +4915,13 @@
         <v>55530</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4936,13 @@
         <v>83554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -4933,13 +4951,13 @@
         <v>93631</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>263</v>
@@ -4948,13 +4966,13 @@
         <v>177185</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5040,13 @@
         <v>81182</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>290</v>
@@ -5037,13 +5055,13 @@
         <v>154842</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>393</v>
@@ -5052,13 +5070,13 @@
         <v>236023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5091,13 @@
         <v>468641</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
         <v>708</v>
@@ -5088,13 +5106,13 @@
         <v>465125</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M8" s="7">
         <v>1217</v>
@@ -5103,13 +5121,13 @@
         <v>933767</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5195,13 @@
         <v>121133</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>435</v>
@@ -5192,13 +5210,13 @@
         <v>275643</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>574</v>
@@ -5207,13 +5225,13 @@
         <v>396775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5246,13 @@
         <v>918115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>1082</v>
@@ -5243,13 +5261,13 @@
         <v>784436</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>1907</v>
@@ -5258,13 +5276,13 @@
         <v>1702552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5350,13 @@
         <v>87601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
         <v>309</v>
@@ -5347,13 +5365,13 @@
         <v>210891</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>403</v>
@@ -5362,13 +5380,13 @@
         <v>298492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5401,13 @@
         <v>641171</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>738</v>
@@ -5398,13 +5416,13 @@
         <v>663480</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>1320</v>
@@ -5413,13 +5431,13 @@
         <v>1304650</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5505,13 @@
         <v>139526</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
         <v>442</v>
@@ -5502,13 +5520,13 @@
         <v>307925</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>604</v>
@@ -5517,13 +5535,13 @@
         <v>447451</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5556,13 @@
         <v>825877</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>1120</v>
@@ -5553,13 +5571,13 @@
         <v>842507</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M17" s="7">
         <v>1964</v>
@@ -5568,13 +5586,13 @@
         <v>1668384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5660,13 @@
         <v>447869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H19" s="7">
         <v>1548</v>
@@ -5657,13 +5675,13 @@
         <v>986402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>2072</v>
@@ -5672,13 +5690,13 @@
         <v>1434271</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5711,13 @@
         <v>2937359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H20" s="7">
         <v>3819</v>
@@ -5708,28 +5726,28 @@
         <v>2849179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M20" s="7">
         <v>6671</v>
       </c>
       <c r="N20" s="7">
-        <v>5786537</v>
+        <v>5786538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,7 +5789,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
